--- a/stock_historical_data/1wk/HFCL.NS.xlsx
+++ b/stock_historical_data/1wk/HFCL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1143"/>
+  <dimension ref="A1:R1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -64301,7 +64301,7 @@
         <v>23</v>
       </c>
       <c r="O1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1140" t="n">
         <v>0</v>
@@ -64421,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64475,7 +64477,1197 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>114</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>111.8000030517578</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>130.3600006103516</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>130.1988677978516</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>251388266</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>131</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>135.3999938964844</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>120.6500015258789</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>120.5008773803711</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>186437818</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>121</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>124.1800003051758</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>113.8499984741211</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>115.3572387695312</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>72649724</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>113.370002746582</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>125.0999984741211</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>105.4000015258789</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>123.25</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>123.0976638793945</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>156855726</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>123.8099975585938</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>132.7700042724609</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>132.6058959960938</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>310188154</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>127.0999984741211</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>122.2699966430664</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>132.5099945068359</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>132.3462066650391</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>322394764</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>133.1000061035156</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>146.1999969482422</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>131.7100067138672</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>131.5472106933594</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>245135052</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>132.75</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>151.2299957275391</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>131.7200012207031</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>149.9799957275391</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>149.7946166992188</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>286202200</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>152</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>141.75</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>149.6199951171875</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>149.43505859375</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>141727683</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>149.6199951171875</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>160.6600036621094</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>146.0099945068359</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>152.8899993896484</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>152.7010192871094</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>232644519</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>152.6999969482422</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>156.3500061035156</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>146.25</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>150.7200012207031</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>150.5337066650391</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>128318915</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>151.1999969482422</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>163.3999938964844</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>148.5500030517578</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>161.8099975585938</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>161.6100006103516</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>228244249</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>171</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>150.3099975585938</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>151</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>150.8133544921875</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>160461262</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>152.7400054931641</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>137.3399963378906</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>139.8300018310547</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>139.8300018310547</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>88599988</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>139.9799957275391</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>142.8500061035156</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>128.8099975585938</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>137.5200042724609</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>137.5200042724609</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>107119784</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>138.3999938964844</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>140.7700042724609</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>126.9800033569336</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>130.0700073242188</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>130.0700073242188</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>62049311</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>131.1999969482422</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>132.8399963378906</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>111.5100021362305</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>113.2799987792969</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>113.2799987792969</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>122051487</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>114.9000015258789</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>122.8000030517578</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>112.3499984741211</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>121.8899993896484</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>121.8899993896484</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>62760420</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>121.5999984741211</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>117.3499984741211</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>126.7900009155273</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>126.7900009155273</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>118877378</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>126.0500030517578</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>133.8000030517578</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>120.0199966430664</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>126.8899993896484</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>126.8899993896484</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>103738430</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>128.6999969482422</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>132.3999938964844</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>125.1600036621094</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>126.2799987792969</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>126.2799987792969</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>58458803</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>129.3000030517578</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>135.9299926757812</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>126.3000030517578</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>129.0899963378906</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>129.0899963378906</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>78236046</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
